--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC5_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3039887925534639</v>
+        <v>0.3071939207585921</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30398879255346395, 'ngram_match_score': 0.13313515260199338, 'weighted_ngram_match_score': 0.21544601230682253, 'syntax_match_score': 0.4827586206896552, 'dataflow_match_score': 0.38461538461538464}</t>
+          <t>{'codebleu': 0.30719392075859214, 'ngram_match_score': 0.13313515260199338, 'weighted_ngram_match_score': 0.21544601230682253, 'syntax_match_score': 0.4827586206896552, 'dataflow_match_score': 0.3974358974358974}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC5_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3071939207585921</v>
+        <v>0.2943734079380793</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30719392075859214, 'ngram_match_score': 0.13313515260199338, 'weighted_ngram_match_score': 0.21544601230682253, 'syntax_match_score': 0.4827586206896552, 'dataflow_match_score': 0.3974358974358974}</t>
+          <t>{'codebleu': 0.2943734079380793, 'ngram_match_score': 0.13313515260199338, 'weighted_ngram_match_score': 0.21544601230682253, 'syntax_match_score': 0.4827586206896552, 'dataflow_match_score': 0.34615384615384615}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
